--- a/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
+++ b/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CF95E-9398-4A37-BD51-63D0856DEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12915"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="521">
   <si>
     <t>Rundate</t>
   </si>
@@ -1576,19 +1581,16 @@
   </si>
   <si>
     <t>93</t>
+  </si>
+  <si>
+    <t>dummy_R2102170085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,353 +1605,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1972,251 +1637,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2224,61 +1647,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2563,21 +1942,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>520</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2686,46 +2065,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:18">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:18">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:18">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:18">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:18">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:18">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:18">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:18">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:18">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -3285,22 +2664,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3155,7 @@
         <v>34</v>
       </c>
       <c r="L9">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -3948,7 +3323,7 @@
         <v>34</v>
       </c>
       <c r="L12">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -4788,7 +4163,7 @@
         <v>34</v>
       </c>
       <c r="L27">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="M27" t="s">
         <v>35</v>
@@ -4900,7 +4275,7 @@
         <v>34</v>
       </c>
       <c r="L29">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="M29" t="s">
         <v>35</v>
@@ -4956,7 +4331,7 @@
         <v>40</v>
       </c>
       <c r="L30">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
@@ -5068,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="L32">
-        <v>16.24</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
@@ -5740,7 +5115,7 @@
         <v>34</v>
       </c>
       <c r="L44">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="M44" t="s">
         <v>35</v>
@@ -5796,7 +5171,7 @@
         <v>34</v>
       </c>
       <c r="L45">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M45" t="s">
         <v>35</v>
@@ -5908,7 +5283,7 @@
         <v>34</v>
       </c>
       <c r="L47">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="M47" t="s">
         <v>35</v>
@@ -5964,7 +5339,7 @@
         <v>34</v>
       </c>
       <c r="L48">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M48" t="s">
         <v>35</v>
@@ -6636,7 +6011,7 @@
         <v>34</v>
       </c>
       <c r="L60">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="M60" t="s">
         <v>35</v>
@@ -6860,7 +6235,7 @@
         <v>34</v>
       </c>
       <c r="L64">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M64" t="s">
         <v>35</v>
@@ -7308,7 +6683,7 @@
         <v>34</v>
       </c>
       <c r="L72">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M72" t="s">
         <v>35</v>
@@ -8148,7 +7523,7 @@
         <v>65</v>
       </c>
       <c r="L87">
-        <v>9.71</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="M87" t="s">
         <v>35</v>
@@ -8652,7 +8027,7 @@
         <v>34</v>
       </c>
       <c r="L96">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="M96" t="s">
         <v>35</v>
@@ -9436,7 +8811,7 @@
         <v>425</v>
       </c>
       <c r="L110">
-        <v>38.87</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="M110" t="s">
         <v>35</v>
@@ -9548,7 +8923,7 @@
         <v>65</v>
       </c>
       <c r="L112">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="M112" t="s">
         <v>35</v>
@@ -9996,7 +9371,7 @@
         <v>65</v>
       </c>
       <c r="L120">
-        <v>33.12</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="M120" t="s">
         <v>35</v>
@@ -10131,6 +9506,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
+++ b/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CF95E-9398-4A37-BD51-63D0856DEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521">
   <si>
     <t>Rundate</t>
   </si>
@@ -77,45 +72,48 @@
     <t>16/06/2021</t>
   </si>
   <si>
+    <t>dummy2_R2102170085</t>
+  </si>
+  <si>
+    <t>BRCA2</t>
+  </si>
+  <si>
+    <t>NM_000059|g.chr13:32316435G&gt;A|--|--|--</t>
+  </si>
+  <si>
+    <t>rs1799943</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>32316435</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>5'UTR</t>
+  </si>
+  <si>
+    <t>HomAlt</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Benign</t>
+  </si>
+  <si>
+    <t>not detected</t>
+  </si>
+  <si>
     <t>R2102170085</t>
   </si>
   <si>
-    <t>BRCA2</t>
-  </si>
-  <si>
-    <t>NM_000059|g.chr13:32316435G&gt;A|--|--|--</t>
-  </si>
-  <si>
-    <t>rs1799943</t>
-  </si>
-  <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>32316435</t>
-  </si>
-  <si>
-    <t>SNP</t>
-  </si>
-  <si>
-    <t>5'UTR</t>
-  </si>
-  <si>
-    <t>HomAlt</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Benign</t>
-  </si>
-  <si>
-    <t>not detected</t>
-  </si>
-  <si>
     <t>NM_000059|g.chr13:32331027C&gt;T|c.790C&gt;T|c.(790-792)Cat&gt;Tat|p.H264Y</t>
   </si>
   <si>
@@ -1581,16 +1579,19 @@
   </si>
   <si>
     <t>93</t>
-  </si>
-  <si>
-    <t>dummy_R2102170085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,16 +1606,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1637,9 +1968,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1647,17 +2220,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1942,21 +2559,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2065,46 +2685,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:1">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:1">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:1">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:1">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:1">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -2664,18 +3284,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2736,49 +3360,49 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>11.94</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>1131</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
         <v>30</v>
@@ -2792,49 +3416,49 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>20.95</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3">
         <v>105</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
@@ -2848,31 +3472,31 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>94.59</v>
@@ -2881,16 +3505,16 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -2904,49 +3528,49 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>5.62</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5">
         <v>178</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
@@ -2960,49 +3584,49 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>25.88</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6">
         <v>228</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -3016,49 +3640,49 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>34.65</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P7">
         <v>228</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -3072,49 +3696,49 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8">
         <v>34.67</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P8">
         <v>548</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -3128,49 +3752,49 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9">
         <v>1999</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -3184,49 +3808,49 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>20.66</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10">
         <v>121</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -3240,49 +3864,49 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>18.18</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11">
         <v>3026</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -3296,49 +3920,49 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12">
         <v>217</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
         <v>30</v>
@@ -3352,49 +3976,49 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>11.11</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13">
         <v>378</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -3408,49 +4032,49 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>21.34</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14">
         <v>792</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
         <v>30</v>
@@ -3464,49 +4088,49 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>10.43</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15">
         <v>470</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
         <v>30</v>
@@ -3520,49 +4144,49 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16">
         <v>22.82</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>206</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s">
         <v>30</v>
@@ -3576,49 +4200,49 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>49.11</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17">
         <v>112</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s">
         <v>30</v>
@@ -3632,49 +4256,49 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>8.49</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18">
         <v>365</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s">
         <v>30</v>
@@ -3688,49 +4312,49 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>22.66</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19">
         <v>278</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
         <v>30</v>
@@ -3744,49 +4368,49 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>8.52</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20">
         <v>1232</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
@@ -3800,49 +4424,49 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L21">
         <v>29.52</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P21">
         <v>105</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" t="s">
         <v>30</v>
@@ -3856,49 +4480,49 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>21.6</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22">
         <v>375</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" t="s">
         <v>30</v>
@@ -3912,31 +4536,31 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>95.21</v>
@@ -3945,16 +4569,16 @@
         <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P23">
         <v>376</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" t="s">
         <v>30</v>
@@ -3968,49 +4592,49 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>21.29</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P24">
         <v>202</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R24" t="s">
         <v>30</v>
@@ -4024,49 +4648,49 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>7.88</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P25">
         <v>330</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R25" t="s">
         <v>30</v>
@@ -4080,52 +4704,52 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26">
         <v>5.18</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P26">
         <v>4152</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4136,52 +4760,52 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P27">
         <v>627</v>
       </c>
       <c r="Q27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4192,52 +4816,52 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>31.01</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P28">
         <v>316</v>
       </c>
       <c r="Q28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4248,52 +4872,52 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L29">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29">
         <v>776</v>
       </c>
       <c r="Q29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4304,52 +4928,52 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P30">
         <v>859</v>
       </c>
       <c r="Q30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4360,52 +4984,52 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L31">
         <v>12.13</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P31">
         <v>643</v>
       </c>
       <c r="Q31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4416,52 +5040,52 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P32">
         <v>665</v>
       </c>
       <c r="Q32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4472,52 +5096,52 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L33">
         <v>8.4</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P33">
         <v>976</v>
       </c>
       <c r="Q33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4528,52 +5152,52 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L34">
         <v>11.07</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P34">
         <v>976</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4584,52 +5208,52 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L35">
         <v>12.21</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P35">
         <v>1130</v>
       </c>
       <c r="Q35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4640,52 +5264,52 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s">
         <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L36">
         <v>17.59</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P36">
         <v>489</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4696,52 +5320,52 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L37">
         <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P37">
         <v>838</v>
       </c>
       <c r="Q37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4752,52 +5376,52 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L38">
         <v>15.24</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P38">
         <v>781</v>
       </c>
       <c r="Q38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4808,52 +5432,52 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J39" t="s">
         <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39">
         <v>6.49</v>
       </c>
       <c r="M39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P39">
         <v>185</v>
       </c>
       <c r="Q39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4864,52 +5488,52 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J40" t="s">
         <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L40">
         <v>20.72</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P40">
         <v>251</v>
       </c>
       <c r="Q40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4920,52 +5544,52 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" t="s">
         <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L41">
         <v>13.01</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P41">
         <v>246</v>
       </c>
       <c r="Q41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4976,52 +5600,52 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J42" t="s">
         <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L42">
         <v>9.82</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P42">
         <v>387</v>
       </c>
       <c r="Q42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5032,52 +5656,52 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J43" t="s">
         <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L43">
         <v>12.64</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P43">
         <v>364</v>
       </c>
       <c r="Q43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5088,52 +5712,52 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J44" t="s">
         <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L44">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P44">
         <v>1041</v>
       </c>
       <c r="Q44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -5144,52 +5768,52 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L45">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P45">
         <v>1250</v>
       </c>
       <c r="Q45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5200,52 +5824,52 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J46" t="s">
         <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L46">
         <v>9.89</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P46">
         <v>809</v>
       </c>
       <c r="Q46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -5256,52 +5880,52 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J47" t="s">
         <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L47">
-        <v>9.1199999999999992</v>
+        <v>9.12</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P47">
         <v>932</v>
       </c>
       <c r="Q47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5312,52 +5936,52 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J48" t="s">
         <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L48">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="M48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P48">
         <v>2159</v>
       </c>
       <c r="Q48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5368,52 +5992,52 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J49" t="s">
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L49">
         <v>6.79</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P49">
         <v>2032</v>
       </c>
       <c r="Q49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5424,52 +6048,52 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J50" t="s">
         <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L50">
         <v>11.09</v>
       </c>
       <c r="M50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P50">
         <v>1010</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5480,52 +6104,52 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J51" t="s">
         <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L51">
         <v>6.16</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P51">
         <v>1672</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5536,52 +6160,52 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J52" t="s">
         <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L52">
         <v>12.64</v>
       </c>
       <c r="M52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P52">
         <v>1313</v>
       </c>
       <c r="Q52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5592,52 +6216,52 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J53" t="s">
         <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L53">
         <v>6.04</v>
       </c>
       <c r="M53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P53">
         <v>530</v>
       </c>
       <c r="Q53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5648,52 +6272,52 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J54" t="s">
         <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L54">
         <v>7.68</v>
       </c>
       <c r="M54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P54">
         <v>2149</v>
       </c>
       <c r="Q54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5704,52 +6328,52 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J55" t="s">
         <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L55">
         <v>10.59</v>
       </c>
       <c r="M55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P55">
         <v>1483</v>
       </c>
       <c r="Q55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5760,31 +6384,31 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J56" t="s">
         <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L56">
         <v>99.41</v>
@@ -5793,19 +6417,19 @@
         <v>26</v>
       </c>
       <c r="N56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P56">
         <v>1021</v>
       </c>
       <c r="Q56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5816,52 +6440,52 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
         <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L57">
         <v>30.49</v>
       </c>
       <c r="M57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P57">
         <v>364</v>
       </c>
       <c r="Q57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5872,52 +6496,52 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J58" t="s">
         <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L58">
         <v>6.47</v>
       </c>
       <c r="M58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P58">
         <v>3290</v>
       </c>
       <c r="Q58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5928,52 +6552,52 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J59" t="s">
         <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59">
         <v>6.1</v>
       </c>
       <c r="M59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P59">
         <v>1163</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5984,52 +6608,52 @@
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J60" t="s">
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L60">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="M60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P60">
         <v>1386</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -6040,52 +6664,52 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J61" t="s">
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L61">
         <v>5.19</v>
       </c>
       <c r="M61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P61">
         <v>443</v>
       </c>
       <c r="Q61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -6096,52 +6720,52 @@
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J62" t="s">
         <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L62">
         <v>30.35</v>
       </c>
       <c r="M62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P62">
         <v>514</v>
       </c>
       <c r="Q62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -6152,52 +6776,52 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J63" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L63">
         <v>7.85</v>
       </c>
       <c r="M63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P63">
         <v>191</v>
       </c>
       <c r="Q63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6208,52 +6832,52 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J64" t="s">
         <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L64">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="M64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P64">
         <v>1854</v>
       </c>
       <c r="Q64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -6264,52 +6888,52 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J65" t="s">
         <v>24</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65">
         <v>10.36</v>
       </c>
       <c r="M65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P65">
         <v>386</v>
       </c>
       <c r="Q65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6320,52 +6944,52 @@
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J66" t="s">
         <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L66">
         <v>5.45</v>
       </c>
       <c r="M66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P66">
         <v>404</v>
       </c>
       <c r="Q66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6376,52 +7000,52 @@
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J67" t="s">
         <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L67">
         <v>5.69</v>
       </c>
       <c r="M67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P67">
         <v>1301</v>
       </c>
       <c r="Q67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6432,52 +7056,52 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J68" t="s">
         <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L68">
         <v>6.79</v>
       </c>
       <c r="M68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P68">
         <v>221</v>
       </c>
       <c r="Q68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6488,52 +7112,52 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J69" t="s">
         <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L69">
         <v>9.85</v>
       </c>
       <c r="M69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P69">
         <v>2488</v>
       </c>
       <c r="Q69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6544,52 +7168,52 @@
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G70" t="s">
         <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J70" t="s">
         <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L70">
         <v>5.83</v>
       </c>
       <c r="M70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P70">
         <v>3791</v>
       </c>
       <c r="Q70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6600,52 +7224,52 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J71" t="s">
         <v>24</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L71">
         <v>6.28</v>
       </c>
       <c r="M71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P71">
         <v>2148</v>
       </c>
       <c r="Q71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6656,52 +7280,52 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J72" t="s">
         <v>24</v>
       </c>
       <c r="K72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L72">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="M72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O72" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P72">
         <v>1299</v>
       </c>
       <c r="Q72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6712,52 +7336,52 @@
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J73" t="s">
         <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L73">
         <v>11.67</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P73">
         <v>1302</v>
       </c>
       <c r="Q73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6768,52 +7392,52 @@
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J74" t="s">
         <v>24</v>
       </c>
       <c r="K74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L74">
         <v>13.01</v>
       </c>
       <c r="M74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P74">
         <v>1360</v>
       </c>
       <c r="Q74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6824,52 +7448,52 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J75" t="s">
         <v>24</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L75">
         <v>54.76</v>
       </c>
       <c r="M75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P75">
         <v>126</v>
       </c>
       <c r="Q75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6880,52 +7504,52 @@
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J76" t="s">
         <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L76">
         <v>44</v>
       </c>
       <c r="M76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P76">
         <v>125</v>
       </c>
       <c r="Q76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6936,52 +7560,52 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J77" t="s">
         <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L77">
         <v>6.56</v>
       </c>
       <c r="M77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P77">
         <v>427</v>
       </c>
       <c r="Q77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6992,52 +7616,52 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J78" t="s">
         <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L78">
         <v>13.4</v>
       </c>
       <c r="M78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P78">
         <v>1179</v>
       </c>
       <c r="Q78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -7048,52 +7672,52 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J79" t="s">
         <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L79">
         <v>19.14</v>
       </c>
       <c r="M79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P79">
         <v>1181</v>
       </c>
       <c r="Q79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -7104,52 +7728,52 @@
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J80" t="s">
         <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L80">
         <v>5.63</v>
       </c>
       <c r="M80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P80">
         <v>2538</v>
       </c>
       <c r="Q80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -7160,52 +7784,52 @@
         <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J81" t="s">
         <v>24</v>
       </c>
       <c r="K81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L81">
         <v>12.53</v>
       </c>
       <c r="M81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P81">
         <v>383</v>
       </c>
       <c r="Q81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -7216,52 +7840,52 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J82" t="s">
         <v>24</v>
       </c>
       <c r="K82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L82">
         <v>5.26</v>
       </c>
       <c r="M82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P82">
         <v>647</v>
       </c>
       <c r="Q82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -7272,52 +7896,52 @@
         <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J83" t="s">
         <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L83">
         <v>5.63</v>
       </c>
       <c r="M83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P83">
         <v>693</v>
       </c>
       <c r="Q83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7328,52 +7952,52 @@
         <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J84" t="s">
         <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L84">
         <v>24.95</v>
       </c>
       <c r="M84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P84">
         <v>477</v>
       </c>
       <c r="Q84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7384,52 +8008,52 @@
         <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J85" t="s">
         <v>24</v>
       </c>
       <c r="K85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L85">
         <v>5.36</v>
       </c>
       <c r="M85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P85">
         <v>2014</v>
       </c>
       <c r="Q85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7440,52 +8064,52 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J86" t="s">
         <v>24</v>
       </c>
       <c r="K86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L86">
         <v>15.08</v>
       </c>
       <c r="M86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N86" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P86">
         <v>630</v>
       </c>
       <c r="Q86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7496,52 +8120,52 @@
         <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J87" t="s">
         <v>24</v>
       </c>
       <c r="K87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L87">
-        <v>9.7100000000000009</v>
+        <v>9.71</v>
       </c>
       <c r="M87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P87">
         <v>1143</v>
       </c>
       <c r="Q87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7552,52 +8176,52 @@
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J88" t="s">
         <v>24</v>
       </c>
       <c r="K88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L88">
         <v>6.2</v>
       </c>
       <c r="M88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P88">
         <v>500</v>
       </c>
       <c r="Q88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R88" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7608,52 +8232,52 @@
         <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J89" t="s">
         <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L89">
         <v>7.04</v>
       </c>
       <c r="M89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O89" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P89">
         <v>2402</v>
       </c>
       <c r="Q89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7664,52 +8288,52 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J90" t="s">
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L90">
         <v>11.9</v>
       </c>
       <c r="M90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O90" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P90">
         <v>1008</v>
       </c>
       <c r="Q90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7720,52 +8344,52 @@
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I91" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J91" t="s">
         <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L91">
         <v>19.87</v>
       </c>
       <c r="M91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P91">
         <v>921</v>
       </c>
       <c r="Q91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7776,52 +8400,52 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J92" t="s">
         <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L92">
         <v>9.09</v>
       </c>
       <c r="M92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N92" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P92">
         <v>363</v>
       </c>
       <c r="Q92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7832,52 +8456,52 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I93" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J93" t="s">
         <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L93">
         <v>8.6</v>
       </c>
       <c r="M93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N93" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P93">
         <v>1744</v>
       </c>
       <c r="Q93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7888,52 +8512,52 @@
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J94" t="s">
         <v>24</v>
       </c>
       <c r="K94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L94">
         <v>17.41</v>
       </c>
       <c r="M94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N94" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O94" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P94">
         <v>741</v>
       </c>
       <c r="Q94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R94" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7944,52 +8568,52 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J95" t="s">
         <v>24</v>
       </c>
       <c r="K95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L95">
         <v>11.04</v>
       </c>
       <c r="M95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O95" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P95">
         <v>308</v>
       </c>
       <c r="Q95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -8000,52 +8624,52 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I96" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J96" t="s">
         <v>24</v>
       </c>
       <c r="K96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L96">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="M96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N96" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O96" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P96">
         <v>2376</v>
       </c>
       <c r="Q96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R96" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -8056,52 +8680,52 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F97" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I97" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K97" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L97">
         <v>24.78</v>
       </c>
       <c r="M97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O97" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P97">
         <v>682</v>
       </c>
       <c r="Q97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R97" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -8112,52 +8736,52 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I98" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J98" t="s">
         <v>24</v>
       </c>
       <c r="K98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L98">
         <v>6.58</v>
       </c>
       <c r="M98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O98" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P98">
         <v>319</v>
       </c>
       <c r="Q98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R98" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -8168,52 +8792,52 @@
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J99" t="s">
         <v>24</v>
       </c>
       <c r="K99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L99">
         <v>7.27</v>
       </c>
       <c r="M99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P99">
         <v>1086</v>
       </c>
       <c r="Q99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -8224,52 +8848,52 @@
         <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I100" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L100">
         <v>22.62</v>
       </c>
       <c r="M100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N100" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O100" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P100">
         <v>1198</v>
       </c>
       <c r="Q100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -8280,52 +8904,52 @@
         <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L101">
         <v>9.74</v>
       </c>
       <c r="M101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N101" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O101" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P101">
         <v>1027</v>
       </c>
       <c r="Q101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8336,52 +8960,52 @@
         <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L102">
         <v>18.32</v>
       </c>
       <c r="M102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N102" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P102">
         <v>1283</v>
       </c>
       <c r="Q102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R102" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8392,49 +9016,49 @@
         <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G103" t="s">
         <v>22</v>
       </c>
       <c r="H103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L103">
         <v>24.38</v>
       </c>
       <c r="M103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N103" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O103" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P103">
         <v>1542</v>
       </c>
       <c r="Q103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R103" t="s">
         <v>30</v>
@@ -8448,49 +9072,49 @@
         <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G104" t="s">
         <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L104">
         <v>11.73</v>
       </c>
       <c r="M104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N104" t="s">
+        <v>450</v>
+      </c>
+      <c r="O104" t="s">
         <v>449</v>
-      </c>
-      <c r="O104" t="s">
-        <v>448</v>
       </c>
       <c r="P104">
         <v>1321</v>
       </c>
       <c r="Q104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R104" t="s">
         <v>30</v>
@@ -8504,31 +9128,31 @@
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G105" t="s">
         <v>22</v>
       </c>
       <c r="H105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J105" t="s">
         <v>24</v>
       </c>
       <c r="K105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L105">
         <v>100</v>
@@ -8537,16 +9161,16 @@
         <v>26</v>
       </c>
       <c r="N105" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O105" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P105">
         <v>2106</v>
       </c>
       <c r="Q105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R105" t="s">
         <v>30</v>
@@ -8560,52 +9184,52 @@
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G106" t="s">
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I106" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L106">
         <v>38.93</v>
       </c>
       <c r="M106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O106" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P106">
         <v>2289</v>
       </c>
       <c r="Q106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -8616,52 +9240,52 @@
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>22</v>
       </c>
       <c r="H107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I107" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L107">
         <v>83</v>
       </c>
       <c r="M107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N107" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P107">
         <v>753</v>
       </c>
       <c r="Q107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -8672,31 +9296,31 @@
         <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G108" t="s">
         <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L108">
         <v>93.18</v>
@@ -8705,19 +9329,19 @@
         <v>26</v>
       </c>
       <c r="N108" t="s">
+        <v>463</v>
+      </c>
+      <c r="O108" t="s">
         <v>462</v>
-      </c>
-      <c r="O108" t="s">
-        <v>461</v>
       </c>
       <c r="P108">
         <v>1877</v>
       </c>
       <c r="Q108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -8728,52 +9352,52 @@
         <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F109" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G109" t="s">
         <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I109" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J109" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K109" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L109">
         <v>31.58</v>
       </c>
       <c r="M109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N109" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O109" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P109">
         <v>1713</v>
       </c>
       <c r="Q109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -8784,52 +9408,52 @@
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G110" t="s">
         <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I110" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K110" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L110">
-        <v>38.869999999999997</v>
+        <v>38.87</v>
       </c>
       <c r="M110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N110" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O110" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P110">
         <v>5042</v>
       </c>
       <c r="Q110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -8840,31 +9464,31 @@
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G111" t="s">
         <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J111" t="s">
         <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L111">
         <v>99.86</v>
@@ -8873,19 +9497,19 @@
         <v>26</v>
       </c>
       <c r="N111" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O111" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P111">
         <v>2841</v>
       </c>
       <c r="Q111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -8896,52 +9520,52 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I112" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L112">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="M112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N112" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O112" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P112">
         <v>2833</v>
       </c>
       <c r="Q112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R112" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -8952,52 +9576,52 @@
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G113" t="s">
         <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I113" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K113" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L113">
         <v>10.35</v>
       </c>
       <c r="M113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N113" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O113" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P113">
         <v>3141</v>
       </c>
       <c r="Q113" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R113" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -9008,52 +9632,52 @@
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F114" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G114" t="s">
         <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L114">
         <v>28.73</v>
       </c>
       <c r="M114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N114" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P114">
         <v>4647</v>
       </c>
       <c r="Q114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R114" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -9064,52 +9688,52 @@
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I115" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J115" t="s">
         <v>24</v>
       </c>
       <c r="K115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L115">
         <v>7.67</v>
       </c>
       <c r="M115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O115" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P115">
         <v>4731</v>
       </c>
       <c r="Q115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R115" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -9120,52 +9744,52 @@
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F116" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H116" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I116" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J116" t="s">
         <v>24</v>
       </c>
       <c r="K116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L116">
         <v>32.06</v>
       </c>
       <c r="M116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N116" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O116" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P116">
         <v>3955</v>
       </c>
       <c r="Q116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -9176,52 +9800,52 @@
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J117" t="s">
         <v>24</v>
       </c>
       <c r="K117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L117">
         <v>6.44</v>
       </c>
       <c r="M117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O117" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P117">
         <v>5998</v>
       </c>
       <c r="Q117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -9232,52 +9856,52 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E118" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F118" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L118">
         <v>7.55</v>
       </c>
       <c r="M118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N118" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O118" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P118">
         <v>1748</v>
       </c>
       <c r="Q118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R118" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -9288,52 +9912,52 @@
         <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E119" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H119" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I119" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J119" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L119">
         <v>26.35</v>
       </c>
       <c r="M119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N119" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O119" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P119">
         <v>702</v>
       </c>
       <c r="Q119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -9344,52 +9968,52 @@
         <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E120" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H120" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I120" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J120" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L120">
-        <v>33.119999999999997</v>
+        <v>33.12</v>
       </c>
       <c r="M120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N120" t="s">
+        <v>514</v>
+      </c>
+      <c r="O120" t="s">
         <v>513</v>
-      </c>
-      <c r="O120" t="s">
-        <v>512</v>
       </c>
       <c r="P120">
         <v>773</v>
       </c>
       <c r="Q120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -9400,52 +10024,52 @@
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L121">
         <v>31.17</v>
       </c>
       <c r="M121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N121" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O121" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P121">
         <v>972</v>
       </c>
       <c r="Q121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R121" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -9456,55 +10080,56 @@
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E122" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H122" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I122" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J122" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L122">
         <v>12.2</v>
       </c>
       <c r="M122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N122" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O122" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P122">
         <v>762</v>
       </c>
       <c r="Q122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
+++ b/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_single.xlsx
@@ -72,7 +72,7 @@
     <t>16/06/2021</t>
   </si>
   <si>
-    <t>dummy2_R2102170085</t>
+    <t>dummy_R2102170085X</t>
   </si>
   <si>
     <t>BRCA2</t>
@@ -1586,10 +1586,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1608,7 +1608,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,6 +1621,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1644,7 +1645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,25 +1659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,6 +1670,37 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1706,17 +1721,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1728,24 +1735,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,13 +1760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,31 +1772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,7 +1820,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,37 +1874,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,55 +1940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,11 +1969,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2002,30 +2008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2037,17 +2019,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,16 +2037,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2087,130 +2087,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
